--- a/BoletinEjercicios.xlsx
+++ b/BoletinEjercicios.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adrian\Documents\GitHub\Master\Master_ADSW\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1C9C5FB-65D8-4335-A1E2-F46CBEFCF4AC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D37D17C6-2BCD-4F2B-8C5D-CBCED54CD7FC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" firstSheet="1" activeTab="2" xr2:uid="{A6F86383-F6B4-477E-A0CE-71D844BC3BAB}"/>
   </bookViews>
@@ -3698,7 +3698,7 @@
       </c>
       <c r="B4" s="66">
         <f>'Apache (Politicas)'!F1</f>
-        <v>0.8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -3752,7 +3752,7 @@
       </c>
       <c r="B10" s="99">
         <f>SUM(B3:B9)</f>
-        <v>1.8</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -4412,7 +4412,7 @@
   <dimension ref="A1:L156"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4434,14 +4434,14 @@
       </c>
       <c r="D1" s="68">
         <f>E6+E12+E24+E34</f>
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="E1" s="69" t="s">
         <v>542</v>
       </c>
       <c r="F1" s="68">
         <f>D1+D2</f>
-        <v>0.8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -4489,7 +4489,7 @@
       </c>
       <c r="E6" s="51">
         <f>SUMPRODUCT($C7:$C11,E7:E11)</f>
-        <v>0.8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:6" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -4548,7 +4548,9 @@
         <v>0.2</v>
       </c>
       <c r="D10" s="72"/>
-      <c r="E10" s="70"/>
+      <c r="E10" s="70">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="1:6" customFormat="1" ht="48" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="51" t="s">

--- a/BoletinEjercicios.xlsx
+++ b/BoletinEjercicios.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adrian\Documents\GitHub\Master\Master_ADSW\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D37D17C6-2BCD-4F2B-8C5D-CBCED54CD7FC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EE01A93-8373-474B-9459-013A89187BA2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" firstSheet="1" activeTab="2" xr2:uid="{A6F86383-F6B4-477E-A0CE-71D844BC3BAB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" activeTab="2" xr2:uid="{A6F86383-F6B4-477E-A0CE-71D844BC3BAB}"/>
   </bookViews>
   <sheets>
     <sheet name="Resumen general" sheetId="8" r:id="rId1"/>
@@ -3698,7 +3698,7 @@
       </c>
       <c r="B4" s="66">
         <f>'Apache (Politicas)'!F1</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -3752,7 +3752,7 @@
       </c>
       <c r="B10" s="99">
         <f>SUM(B3:B9)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -4411,8 +4411,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62DF5160-4284-4FEF-A742-DD5BF6903890}">
   <dimension ref="A1:L156"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4434,14 +4434,14 @@
       </c>
       <c r="D1" s="68">
         <f>E6+E12+E24+E34</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E1" s="69" t="s">
         <v>542</v>
       </c>
       <c r="F1" s="68">
         <f>D1+D2</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -4489,7 +4489,7 @@
       </c>
       <c r="E6" s="51">
         <f>SUMPRODUCT($C7:$C11,E7:E11)</f>
-        <v>1</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="7" spans="1:6" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -4563,7 +4563,9 @@
         <v>0.4</v>
       </c>
       <c r="D11" s="72"/>
-      <c r="E11" s="70"/>
+      <c r="E11" s="70">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="1:6" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="46">
@@ -4579,7 +4581,7 @@
       </c>
       <c r="E12" s="51">
         <f>SUMPRODUCT($C13:$C23,E13:E23)</f>
-        <v>0</v>
+        <v>0.60000000000000009</v>
       </c>
     </row>
     <row r="13" spans="1:6" customFormat="1" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -4593,7 +4595,9 @@
         <v>0.2</v>
       </c>
       <c r="D13" s="72"/>
-      <c r="E13" s="70"/>
+      <c r="E13" s="70">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="1:6" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="51" t="s">
@@ -4606,7 +4610,9 @@
         <v>0.2</v>
       </c>
       <c r="D14" s="72"/>
-      <c r="E14" s="70"/>
+      <c r="E14" s="70">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="1:6" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="51" t="s">
@@ -4619,7 +4625,9 @@
         <v>0.2</v>
       </c>
       <c r="D15" s="72"/>
-      <c r="E15" s="70"/>
+      <c r="E15" s="70">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" spans="1:6" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="51" t="s">

--- a/BoletinEjercicios.xlsx
+++ b/BoletinEjercicios.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adrian\Documents\GitHub\Master\Master_ADSW\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EE01A93-8373-474B-9459-013A89187BA2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A110330-5035-4A22-833D-3360BF8EC2CE}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" activeTab="2" xr2:uid="{A6F86383-F6B4-477E-A0CE-71D844BC3BAB}"/>
   </bookViews>
@@ -3698,7 +3698,7 @@
       </c>
       <c r="B4" s="66">
         <f>'Apache (Politicas)'!F1</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -3752,7 +3752,7 @@
       </c>
       <c r="B10" s="99">
         <f>SUM(B3:B9)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -4411,8 +4411,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62DF5160-4284-4FEF-A742-DD5BF6903890}">
   <dimension ref="A1:L156"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4434,14 +4434,14 @@
       </c>
       <c r="D1" s="68">
         <f>E6+E12+E24+E34</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" s="69" t="s">
         <v>542</v>
       </c>
       <c r="F1" s="68">
         <f>D1+D2</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -4581,7 +4581,7 @@
       </c>
       <c r="E12" s="51">
         <f>SUMPRODUCT($C13:$C23,E13:E23)</f>
-        <v>0.60000000000000009</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="13" spans="1:6" customFormat="1" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -4640,7 +4640,9 @@
         <v>0.2</v>
       </c>
       <c r="D16" s="72"/>
-      <c r="E16" s="70"/>
+      <c r="E16" s="70">
+        <v>1</v>
+      </c>
     </row>
     <row r="17" spans="1:5" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="51" t="s">
@@ -4653,7 +4655,9 @@
         <v>0.2</v>
       </c>
       <c r="D17" s="72"/>
-      <c r="E17" s="70"/>
+      <c r="E17" s="70">
+        <v>1</v>
+      </c>
     </row>
     <row r="18" spans="1:5" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="51" t="s">
@@ -4666,7 +4670,9 @@
         <v>0.2</v>
       </c>
       <c r="D18" s="72"/>
-      <c r="E18" s="70"/>
+      <c r="E18" s="70">
+        <v>1</v>
+      </c>
     </row>
     <row r="19" spans="1:5" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="51" t="s">
@@ -4718,7 +4724,9 @@
         <v>0.4</v>
       </c>
       <c r="D22" s="72"/>
-      <c r="E22" s="70"/>
+      <c r="E22" s="70">
+        <v>1</v>
+      </c>
     </row>
     <row r="23" spans="1:5" customFormat="1" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="51" t="s">

--- a/BoletinEjercicios.xlsx
+++ b/BoletinEjercicios.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adrian\Documents\GitHub\Master\Master_ADSW\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A110330-5035-4A22-833D-3360BF8EC2CE}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A366D575-0B4D-4775-B4AE-B466A36ED688}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" activeTab="2" xr2:uid="{A6F86383-F6B4-477E-A0CE-71D844BC3BAB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" activeTab="1" xr2:uid="{A6F86383-F6B4-477E-A0CE-71D844BC3BAB}"/>
   </bookViews>
   <sheets>
     <sheet name="Resumen general" sheetId="8" r:id="rId1"/>
@@ -3689,7 +3689,7 @@
       </c>
       <c r="B3" s="66">
         <f>'SO-Operaciones básicas'!J3</f>
-        <v>0.8</v>
+        <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -3698,7 +3698,7 @@
       </c>
       <c r="B4" s="66">
         <f>'Apache (Politicas)'!F1</f>
-        <v>3</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -3752,7 +3752,7 @@
       </c>
       <c r="B10" s="99">
         <f>SUM(B3:B9)</f>
-        <v>4</v>
+        <v>5.0000000000000009</v>
       </c>
     </row>
   </sheetData>
@@ -3765,8 +3765,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{154B49C8-B2D2-49BD-8215-AD2931EE562D}">
   <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3807,7 +3807,7 @@
       </c>
       <c r="J3" s="6">
         <f>SUMPRODUCT(C5:C138,F5:F138)</f>
-        <v>0.8</v>
+        <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -4076,7 +4076,9 @@
       <c r="E17" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F17" s="50"/>
+      <c r="F17" s="50">
+        <v>1</v>
+      </c>
       <c r="G17" s="50"/>
     </row>
     <row r="18" spans="1:7" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4411,8 +4413,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62DF5160-4284-4FEF-A742-DD5BF6903890}">
   <dimension ref="A1:L156"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37:B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4434,14 +4436,14 @@
       </c>
       <c r="D1" s="68">
         <f>E6+E12+E24+E34</f>
-        <v>3</v>
+        <v>3.7</v>
       </c>
       <c r="E1" s="69" t="s">
         <v>542</v>
       </c>
       <c r="F1" s="68">
         <f>D1+D2</f>
-        <v>3</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -4889,7 +4891,7 @@
       </c>
       <c r="E34" s="51">
         <f>SUMPRODUCT($C35:$C56,E35:E56)</f>
-        <v>0</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="35" spans="1:5" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -4942,7 +4944,9 @@
         <v>0.7</v>
       </c>
       <c r="D38" s="72"/>
-      <c r="E38" s="70"/>
+      <c r="E38" s="70">
+        <v>1</v>
+      </c>
     </row>
     <row r="39" spans="1:5" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="51" t="s">
